--- a/GPR/results_f/virtual_samples_DotProduct.xlsx
+++ b/GPR/results_f/virtual_samples_DotProduct.xlsx
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.027903092047619</v>
+        <v>2.027903092047612</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0.25</v>
       </c>
       <c r="C3" t="n">
-        <v>2.027910623178865</v>
+        <v>2.027910623178777</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.027918154310111</v>
+        <v>2.027918154309941</v>
       </c>
     </row>
     <row r="5">
@@ -491,7 +491,7 @@
         <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>2.027925685441358</v>
+        <v>2.027925685441105</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.027933216572604</v>
+        <v>2.02793321657227</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.027904318289687</v>
+        <v>2.027904318289667</v>
       </c>
     </row>
     <row r="8">
@@ -524,7 +524,7 @@
         <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>2.027911849420934</v>
+        <v>2.027911849420831</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.02791938055218</v>
+        <v>2.027919380551996</v>
       </c>
     </row>
     <row r="10">
@@ -546,7 +546,7 @@
         <v>0.75</v>
       </c>
       <c r="C10" t="n">
-        <v>2.027926911683426</v>
+        <v>2.02792691168316</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2.027934442814672</v>
+        <v>2.027934442814325</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.027905544531755</v>
+        <v>2.027905544531722</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" t="n">
-        <v>2.027913075663001</v>
+        <v>2.027913075662886</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>2.027920606794248</v>
+        <v>2.027920606794051</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>0.75</v>
       </c>
       <c r="C15" t="n">
-        <v>2.027928137925494</v>
+        <v>2.027928137925215</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2.02793566905674</v>
+        <v>2.027935669056379</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.027906770773823</v>
+        <v>2.027906770773777</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>0.25</v>
       </c>
       <c r="C18" t="n">
-        <v>2.027914301905069</v>
+        <v>2.027914301904941</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>0.5</v>
       </c>
       <c r="C19" t="n">
-        <v>2.027921833036316</v>
+        <v>2.027921833036106</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>0.75</v>
       </c>
       <c r="C20" t="n">
-        <v>2.027929364167562</v>
+        <v>2.02792936416727</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2.027936895298808</v>
+        <v>2.027936895298434</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>0.125</v>
       </c>
       <c r="C22" t="n">
-        <v>2.027906244492208</v>
+        <v>2.027906244492167</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>0.125</v>
       </c>
       <c r="C23" t="n">
-        <v>2.027907470734276</v>
+        <v>2.027907470734222</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>0.125</v>
       </c>
       <c r="C24" t="n">
-        <v>2.027908696976344</v>
+        <v>2.027908696976277</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>0.125</v>
       </c>
       <c r="C25" t="n">
-        <v>2.027909923218413</v>
+        <v>2.027909923218332</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>0.125</v>
       </c>
       <c r="C26" t="n">
-        <v>2.02791114946048</v>
+        <v>2.027911149460386</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>0.375</v>
       </c>
       <c r="C27" t="n">
-        <v>2.027913775623455</v>
+        <v>2.027913775623332</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>0.375</v>
       </c>
       <c r="C28" t="n">
-        <v>2.027915001865523</v>
+        <v>2.027915001865387</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>0.375</v>
       </c>
       <c r="C29" t="n">
-        <v>2.02791622810759</v>
+        <v>2.027916228107441</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>0.375</v>
       </c>
       <c r="C30" t="n">
-        <v>2.027917454349659</v>
+        <v>2.027917454349496</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>0.375</v>
       </c>
       <c r="C31" t="n">
-        <v>2.027918680591727</v>
+        <v>2.027918680591551</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>0.625</v>
       </c>
       <c r="C32" t="n">
-        <v>2.027921306754701</v>
+        <v>2.027921306754496</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>0.625</v>
       </c>
       <c r="C33" t="n">
-        <v>2.027922532996769</v>
+        <v>2.027922532996551</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>0.625</v>
       </c>
       <c r="C34" t="n">
-        <v>2.027923759238837</v>
+        <v>2.027923759238606</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>0.625</v>
       </c>
       <c r="C35" t="n">
-        <v>2.027924985480905</v>
+        <v>2.02792498548066</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>2.027926211722973</v>
+        <v>2.027926211722715</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>0.875</v>
       </c>
       <c r="C37" t="n">
-        <v>2.027928837885947</v>
+        <v>2.027928837885661</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>0.875</v>
       </c>
       <c r="C38" t="n">
-        <v>2.027930064128015</v>
+        <v>2.027930064127715</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>0.875</v>
       </c>
       <c r="C39" t="n">
-        <v>2.027931290370083</v>
+        <v>2.02793129036977</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>0.875</v>
       </c>
       <c r="C40" t="n">
-        <v>2.027932516612151</v>
+        <v>2.027932516611825</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>0.875</v>
       </c>
       <c r="C41" t="n">
-        <v>2.027933742854219</v>
+        <v>2.027933742853879</v>
       </c>
     </row>
   </sheetData>
